--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4226,7 +4226,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1552,7 +1552,7 @@
     <t>10*6/uL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-number-concentration-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-number-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2433,7 +2433,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.11328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1552,7 +1552,7 @@
     <t>10*6/uL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-number-concentration-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-number-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2433,7 +2433,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.11328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.34375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-thrombocytes-in-blood-count-per-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1552,7 +1552,7 @@
     <t>10*6/uL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-number-concentration-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-number-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2433,7 +2433,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.0234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-umls-platelet-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Observation.category:Laboratory.id</t>
+    <t>Observation.category:PlateletsHEMBC</t>
+  </si>
+  <si>
+    <t>PlateletsHEMBC</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsHEMBC.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.extension</t>
+    <t>Observation.category:PlateletsHEMBC.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding</t>
+    <t>Observation.category:PlateletsHEMBC.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.id</t>
+    <t>Observation.category:PlateletsHEMBC.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.extension</t>
+    <t>Observation.category:PlateletsHEMBC.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.system</t>
+    <t>Observation.category:PlateletsHEMBC.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.version</t>
+    <t>Observation.category:PlateletsHEMBC.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.code</t>
+    <t>Observation.category:PlateletsHEMBC.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>C0942474</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.display</t>
+    <t>Observation.category:PlateletsHEMBC.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.userSelected</t>
+    <t>Observation.category:PlateletsHEMBC.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.text</t>
+    <t>Observation.category:PlateletsHEMBC.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -922,175 +922,172 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.category:ClinicalMeasurement</t>
-  </si>
-  <si>
-    <t>ClinicalMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000000</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement</t>
-  </si>
-  <si>
-    <t>BloodMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000035</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement</t>
-  </si>
-  <si>
-    <t>BloodCellMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000036</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCellMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement</t>
-  </si>
-  <si>
-    <t>PlateletMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000921</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:PlateletMeasurement.text</t>
+    <t>Observation.category:PlateletMeanVolume</t>
+  </si>
+  <si>
+    <t>PlateletMeanVolume</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.code</t>
+  </si>
+  <si>
+    <t>C0944136</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletMeanVolume.text</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth</t>
+  </si>
+  <si>
+    <t>PlateletDistributionWidth</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.code</t>
+  </si>
+  <si>
+    <t>C1147891</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletDistributionWidth.text</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets</t>
+  </si>
+  <si>
+    <t>PlateletsReticulatedPer100Platelets</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.code</t>
+  </si>
+  <si>
+    <t>C2359896</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsReticulatedPer100Platelets.text</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets</t>
+  </si>
+  <si>
+    <t>PlateletsLargePerPlatelets</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.code</t>
+  </si>
+  <si>
+    <t>C1953883</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:PlateletsLargePerPlatelets.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -2408,9 +2405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.55859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="32.9921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4283,7 +4280,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5735,7 +5732,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -6486,7 +6483,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6683,7 +6680,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6728,7 +6725,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6805,7 +6802,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -7171,13 +7168,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7187,7 +7184,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -7295,7 +7292,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>214</v>
@@ -7413,7 +7410,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>220</v>
@@ -7533,7 +7530,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>224</v>
@@ -7655,7 +7652,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>234</v>
@@ -7773,7 +7770,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>236</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
@@ -7938,7 +7935,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8015,7 +8012,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -8135,7 +8132,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>256</v>
@@ -8180,7 +8177,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -8379,7 +8376,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -8501,7 +8498,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
@@ -8623,13 +8620,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8639,7 +8636,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -8747,7 +8744,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>214</v>
@@ -8865,7 +8862,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>220</v>
@@ -8985,7 +8982,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>224</v>
@@ -9107,7 +9104,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>234</v>
@@ -9225,7 +9222,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>236</v>
@@ -9345,7 +9342,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>238</v>
@@ -9390,7 +9387,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9467,7 +9464,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>248</v>
@@ -9587,7 +9584,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>256</v>
@@ -9632,7 +9629,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9709,7 +9706,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>266</v>
@@ -9831,7 +9828,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>274</v>
@@ -9953,7 +9950,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>284</v>
@@ -10075,13 +10072,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10091,7 +10088,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -10199,7 +10196,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>214</v>
@@ -10317,7 +10314,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>220</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>224</v>
@@ -10559,7 +10556,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>234</v>
@@ -10677,7 +10674,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>236</v>
@@ -10797,7 +10794,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>238</v>
@@ -10842,7 +10839,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10919,7 +10916,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>248</v>
@@ -11039,7 +11036,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>256</v>
@@ -11084,7 +11081,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11161,7 +11158,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>266</v>
@@ -11283,7 +11280,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>274</v>
@@ -11405,7 +11402,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11527,14 +11524,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11556,16 +11553,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11590,14 +11587,14 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11614,7 +11611,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11629,30 +11626,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11767,10 +11764,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11887,10 +11884,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12009,10 +12006,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12127,10 +12124,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12247,10 +12244,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12292,7 +12289,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12369,10 +12366,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12489,10 +12486,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12534,7 +12531,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12611,10 +12608,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12733,10 +12730,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12855,10 +12852,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12903,7 +12900,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12977,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13003,19 +13000,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13064,7 +13061,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13079,19 +13076,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13099,10 +13096,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13125,16 +13122,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13184,7 +13181,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13205,13 +13202,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13219,14 +13216,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13245,19 +13242,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13306,7 +13303,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13321,19 +13318,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13341,14 +13338,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13367,19 +13364,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13428,7 +13425,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13443,19 +13440,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13463,10 +13460,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13489,16 +13486,16 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13548,7 +13545,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13569,13 +13566,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13583,10 +13580,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13609,19 +13606,19 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13670,7 +13667,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13685,19 +13682,19 @@
         <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13705,10 +13702,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13731,19 +13728,19 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13780,7 +13777,7 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -13790,7 +13787,7 @@
         <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13799,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13808,30 +13805,30 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13853,19 +13850,19 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13914,7 +13911,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13923,36 +13920,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14067,10 +14064,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14187,10 +14184,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14213,19 +14210,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14274,7 +14271,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14295,10 +14292,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14309,10 +14306,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14338,22 +14335,22 @@
         <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O99" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
@@ -14377,28 +14374,28 @@
         <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Z99" t="s" s="2">
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14419,10 +14416,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14433,10 +14430,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14462,16 +14459,16 @@
         <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14520,7 +14517,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14541,10 +14538,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14555,10 +14552,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14584,74 +14581,74 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="S101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF101" t="s" s="2">
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI101" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14663,10 +14660,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14677,10 +14674,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14706,16 +14703,16 @@
         <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14743,28 +14740,28 @@
         <v>188</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z102" t="s" s="2">
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14785,10 +14782,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14799,10 +14796,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14828,16 +14825,16 @@
         <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14862,40 +14859,40 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y103" t="s" s="2">
+      <c r="Z103" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z103" t="s" s="2">
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14910,7 +14907,7 @@
         <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14921,14 +14918,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14950,16 +14947,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14984,14 +14981,14 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15008,7 +15005,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15026,27 +15023,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15069,19 +15066,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15130,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15151,10 +15148,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15165,10 +15162,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15194,13 +15191,13 @@
         <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15226,14 +15223,14 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15250,7 +15247,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15268,27 +15265,27 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>539</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15314,16 +15311,16 @@
         <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15348,14 +15345,14 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15372,7 +15369,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15393,10 +15390,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15407,10 +15404,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15433,16 +15430,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15492,7 +15489,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15510,27 +15507,27 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AN108" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AN108" t="s" s="2">
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>557</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15553,16 +15550,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15612,7 +15609,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15630,27 +15627,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>566</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15673,19 +15670,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15734,7 +15731,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15746,19 +15743,19 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AK110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15769,10 +15766,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15887,10 +15884,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16007,14 +16004,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16036,10 +16033,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16094,7 +16091,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16129,10 +16126,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16155,16 +16152,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16214,7 +16211,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16223,22 +16220,22 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AJ114" t="s" s="2">
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AK114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM114" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16249,10 +16246,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16275,16 +16272,16 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="N115" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16334,7 +16331,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16343,22 +16340,22 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AJ115" t="s" s="2">
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="AN115" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16369,10 +16366,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16398,16 +16395,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16435,11 +16432,11 @@
         <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16456,7 +16453,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16474,13 +16471,13 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AM116" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN116" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16491,10 +16488,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16520,16 +16517,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16554,14 +16551,14 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16578,7 +16575,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16596,13 +16593,13 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AM117" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN117" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16613,10 +16610,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16639,19 +16636,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16700,7 +16697,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16712,19 +16709,19 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16735,10 +16732,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16764,10 +16761,10 @@
         <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>259</v>
@@ -16820,7 +16817,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16841,10 +16838,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16855,10 +16852,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16881,16 +16878,16 @@
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16940,7 +16937,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16961,10 +16958,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16975,10 +16972,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17001,16 +16998,16 @@
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17060,7 +17057,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17081,10 +17078,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17095,10 +17092,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17121,19 +17118,19 @@
         <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17182,7 +17179,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17203,10 +17200,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17217,10 +17214,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17335,10 +17332,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17455,14 +17452,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17484,10 +17481,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17542,7 +17539,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17577,10 +17574,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17606,16 +17603,16 @@
         <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N126" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="O126" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17640,14 +17637,14 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y126" t="s" s="2">
+      <c r="Z126" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z126" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17664,7 +17661,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>92</v>
@@ -17682,16 +17679,16 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM126" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN126" t="s" s="2">
+      <c r="AO126" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17699,10 +17696,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17725,19 +17722,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>655</v>
-      </c>
       <c r="O127" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17786,7 +17783,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17804,27 +17801,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN127" t="s" s="2">
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP127" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17850,16 +17847,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="N128" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="O128" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17884,40 +17881,40 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y128" t="s" s="2">
+      <c r="Z128" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z128" t="s" s="2">
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI128" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -17932,7 +17929,7 @@
         <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17943,14 +17940,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17972,16 +17969,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18006,14 +18003,14 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18030,7 +18027,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18048,27 +18045,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM129" t="s" s="2">
+      <c r="AN129" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN129" t="s" s="2">
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP129" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18094,16 +18091,16 @@
         <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M130" t="s" s="2">
-        <v>664</v>
-      </c>
       <c r="N130" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O130" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18152,7 +18149,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18173,10 +18170,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1154,7 +1154,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1154,7 +1154,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
+++ b/output/StructureDefinition-cde-thrombocytes-in-blood-count-per-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
